--- a/results/2002.xlsx
+++ b/results/2002.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,4606 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>630000011986</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>尹克升</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大民族委员会副主任委员'}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001985, 'prov_leader': '高德占', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}, {'person_id': 620000001986, 'prov_leader': '贾志杰', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}, {'person_id': 460000011993, 'prov_leader': '阮崇武', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}, {'person_id': 540000001990, 'prov_leader': '江村罗布', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}, {'person_id': 620000001983, 'prov_leader': '陈光毅', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}, {'person_id': 620000011991, 'prov_leader': '顾金池', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}, {'person_id': 360000011985, 'prov_leader': '万绍芬', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}}, {'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>620000001980</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>冯纪新</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[{'person_id': 450000012013, 'prov_leader': '彭清华', 'experience': {'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 7, 'job_name': '中央组织部干部一局局长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>370500001993</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>张庆黎</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '军队', 'rank': 8, 'job_name': '新疆维吾尔自治区新疆生产建设兵团司令'}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>360100001996</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>刘伟平</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 8, 'job_name': '青海省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[{'person_id': 630100011997, 'prov_leader': '赵乐际', 'experience': {'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 9, 'job_name': '青海省政府/国务院（综合）省长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>440100001997</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>林树森</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '广东省广州市', 'type': '政府/国务院', 'rank': 8, 'job_name': '广东省广州市政府/国务院（综合）副市长、代市长、市长'}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>340100001999</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>车俊</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '安徽省合肥市', 'type': '党委', 'rank': 0, 'job_name': '安徽省合肥市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>610500002001</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>王东峰</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '陕西省渭南市', 'type': '政府/国务院', 'rank': 7, 'job_name': '陕西省渭南市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>320100002002</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>罗志军</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '江苏省南京市', 'type': '政府/国务院', 'rank': 8, 'job_name': '江苏省南京市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>210000001994</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>闻世震</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[{'person_id': 210000002004, 'prov_leader': '张文岳', 'experience': {'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>431300002005</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>林武</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '湖南省湘潭市', 'type': '地方企业', 'rank': 7, 'job_name': '湖南省湘潭市湘潭钢铁公司总经理、执行董事'}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>152900002005</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>布小林</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-02-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '内蒙古自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '内蒙古自治区法制办公室主任'}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>430600011990</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>储波</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 9, 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>430600011990</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>储波</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2009-11-01 00:00:00'), 'location': '内蒙古自治区', 'type': '军队', 'rank': 9, 'job_name': '内蒙古自治区内蒙古军区政委'}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>341000011993</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>赵正永</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2005-01-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 0, 'job_name': '陕西省政法委员会书记'}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>450600011993</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>李兆焯</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>430600012004</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>易炼红</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-05-01 00:00:00'), 'location': '湖南省', 'type': '学校', 'rank': 7, 'job_name': '湖南省湖南省委党校副校长'}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>210000002004</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>张文岳</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>210000002015</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>陈求发</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 7, 'job_name': '中央科学技术委员会纪检组组长'}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>340000001987</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卢荣景</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '安徽省', 'type': '政协', 'rank': 9, 'job_name': '安徽省政协常委会主席'}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>340000001989</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>傅锡寿</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}}, {'person_id': 130000001988, 'prov_leader': '岳歧峰', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 130000001993, 'prov_leader': '叶连松', 'experience': {'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 330000001988, 'prov_leader': '沈祖伦', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会党组副书记'}}, {'person_id': 640000001987, 'prov_leader': '白立忱', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席、党组成员'}}, {'person_id': 310000011985, 'prov_leader': '芮杏文', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协委员会常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>620100011996</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>陆浩</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 0, 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[{'person_id': 620000001998, 'prov_leader': '宋照肃', 'experience': {'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 9, 'job_name': '甘肃省党委常委会/政治局书记'}}, {'person_id': 310000001995, 'prov_leader': '徐匡迪', 'experience': {'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2010-06-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中国工程院院长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>620100011996</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>陆浩</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 9, 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>620100011996</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>陆浩</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中央党校省部级在职研究生班政治学专业学员'}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>110000001993</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>李其炎</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人力资源和社会保障部/厅/局副部长'}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）秘书长'}}, {'person_id': 650000001980, 'prov_leader': '司马义·艾买提', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>110000001999</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>刘淇</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 9, 'job_name': '北京市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>520000001993</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>陈士能</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 9, 'job_name': '中央中国轻工业联合会会长'}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>320200001998</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>吴新雄</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '江西省南昌市', 'type': '党委', 'rank': 0, 'job_name': '江西省南昌市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[{'person_id': 140000002009, 'prov_leader': '王君', 'experience': {'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 8, 'job_name': '江西省党委常委会/政治局副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>520000002001</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>石秀诗</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 9, 'job_name': '贵州省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>220300011990</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>苏荣</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 9, 'job_name': '青海省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[{'person_id': 630000002005, 'prov_leader': '宋秀岩', 'experience': {'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省党委常委会/政治局副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>440300011998</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>张高丽</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山东省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[{'person_id': 370800001990, 'prov_leader': '韩寓群', 'experience': {'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山东省政府/国务院（综合）副省长'}}, {'person_id': 370282011990, 'prov_leader': '赵克志', 'experience': {'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '山东省政府/国务院（综合）副省长、党组成员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>340000002017</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>李国英</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-05-01 00:00:00'), 'end_time': Timestamp('2011-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央水利部/厅/局黄河水利委员会主任、党组书记（副部级）'}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[{'person_id': 140000001994, 'prov_leader': '孙文盛', 'experience': {'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国土资源部/厅/局副部长'}}, {'person_id': 360000002011, 'prov_leader': '鹿心社', 'experience': {'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2010-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国土资源部/厅/局副部长'}}, {'person_id': 510000001996, 'prov_leader': '宋宝瑞', 'experience': {'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央经济体制改革委员会副主任、党组副书记'}}, {'person_id': 640000001987, 'prov_leader': '白立忱', 'experience': {'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央供销合作社理事会主任'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>440300012015</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>马兴瑞</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>110000002013</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>王安顺</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 8, 'job_name': '上海市组织部部长'}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>340100011992</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>王太华</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 9, 'job_name': '安徽省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>110000002017</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>陈吉宁</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2006-02-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市清华大学环境科学与工程系主任'}</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>622900011990</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>石宗源</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央新闻出版署/版权局局长'}</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>622900011990</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>石宗源</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员'}</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）机关党组书记'}}, {'person_id': 410000012005, 'prov_leader': '徐光春', 'experience': {'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局党组书记'}}, {'person_id': 410000012005, 'prov_leader': '徐光春', 'experience': {'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传部副部长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>321182011994</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>蒋定之</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '江苏省无锡市', 'type': '党委', 'rank': 0, 'job_name': '江苏省无锡市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>520100012000</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>王晓东</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '贵州省贵阳市', 'type': '党委', 'rank': 0, 'job_name': '贵州省贵阳市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>412823011990</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>陈全国</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 0, 'job_name': '河南省组织部部长'}</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>370000001987</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>姜春云</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[{'person_id': 650000001986, 'prov_leader': '铁木尔·达瓦买提', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长、党组成员'}}, {'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>140000001983</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>王森浩</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}}, {'person_id': 130000001988, 'prov_leader': '岳歧峰', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 130000001993, 'prov_leader': '叶连松', 'experience': {'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 210000001982, 'prov_leader': '全树仁', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 230000001989, 'prov_leader': '邵奇惠', 'experience': {'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 330000001988, 'prov_leader': '沈祖伦', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会党组副书记'}}, {'person_id': 640000001987, 'prov_leader': '白立忱', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席、党组成员'}}, {'person_id': 510000011983, 'prov_leader': '杨汝岱', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 310000011985, 'prov_leader': '芮杏文', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协委员会常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>653100001991</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>司马义·铁力瓦尔地</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 8, 'job_name': '新疆维吾尔自治区党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>430000011978</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>毛致用</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>510000011983</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>杨汝岱</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会党组副书记'}}, {'person_id': 340000001989, 'prov_leader': '傅锡寿', 'experience': {'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>450000011985</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>陈辉光</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1988-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政协', 'rank': 9, 'job_name': '广西壮族自治区政协常委会主席、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>210000011985</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>李贵鲜</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}}, {'person_id': 340000001989, 'prov_leader': '傅锡寿', 'experience': {'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}}, {'person_id': 310000011985, 'prov_leader': '芮杏文', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协委员会常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>330000011989</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>李泽民</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-08-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'type': '人大', 'rank': 9, 'job_name': '浙江省人大常委会主任'}</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>370000001995</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>李春亭</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央农业与农村委员会副主任委员'}</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001985, 'prov_leader': '高德占', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央农业与农村委员会主任委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>310000011991</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>吴邦国</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000001988, 'prov_leader': '朱镕基', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 11, 'job_name': '中央政府/国务院（综合）总理'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>310000011991</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>吴邦国</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央企业工作委员会书记'}</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[{'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>440300002010</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>许勤</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2005-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 6, 'job_name': '中央发展改革/计划委员会高技术产业发展司副司长'}</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>440300002010</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>许勤</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2004-11-01 00:00:00'), 'location': '香港特别行政区', 'type': '学校', 'rank': 6, 'job_name': '香港特别行政区香港理工大学工商管理博士生'}</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>150000011995</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>刘明祖</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '内蒙古自治区', 'type': '人大', 'rank': 9, 'job_name': '内蒙古自治区人大常委会主任'}</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>510000011993</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>谢世杰</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '四川省', 'type': '人大', 'rank': 9, 'job_name': '四川省人大常委会主任'}</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>610000011998</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>李建国</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-08-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 9, 'job_name': '陕西省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>230000011998</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>徐有芳</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 9, 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>230000011998</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>徐有芳</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-02-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '黑龙江省', 'type': '人大', 'rank': 9, 'job_name': '黑龙江省人大常委会主任'}</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>530000011998</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>令狐安</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2010-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家审计署/地方审计厅/局审计长（正部长级）、党组副书记'}</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[{'person_id': 622900011990, 'prov_leader': '石宗源', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央新闻出版署/版权局局长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>350000012001</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>宋德福</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 9, 'job_name': '福建省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>410000012005</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>徐光春</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传部副部长'}</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}, {'person_id': 622900011990, 'prov_leader': '石宗源', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>410000012005</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>徐光春</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局局长'}</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>410000012005</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>徐光春</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局党组书记'}</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}, {'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央企业工作委员会书记'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）机关党组书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>410000012005</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>徐光春</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员（兼任）'}</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[{'person_id': 140100011990, 'prov_leader': '孙英', 'experience': {'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央党史研究室主任'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 620000001993, 'prov_leader': '阎海旺', 'experience': {'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央金融工作委员会副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>410000012005</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>徐光春</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央精神文明建设指导委员会委员（兼任）'}</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}, {'person_id': 320000001995, 'prov_leader': '郑斯林', 'experience': {'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央企业工作委员会副书记'}}, {'person_id': 230100001990, 'prov_leader': '张德邻', 'experience': {'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央直属机关工作委员会正部长级副书记'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 320000001995, 'prov_leader': '郑斯林', 'experience': {'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央企业工作委员会副书记'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>450000012006</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>刘奇葆</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 8, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[{'person_id': 430300011990, 'prov_leader': '曹伯纯', 'experience': {'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 9, 'job_name': '广西壮族自治区党委常委会/政治局书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>450000012008</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>郭声琨</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国铝业公司总经理'}</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[{'person_id': 350000002011, 'prov_leader': '苏树林', 'experience': {'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司大庆石油管理局董事长、总经理'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>450000012008</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>郭声琨</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2004-04-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国铝业公司董事长、总裁'}</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>230000012008</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>吉炳轩</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央宣传部副部长'}</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000012007, 'prov_leader': '赵洪祝', 'experience': {'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央纪律检查委员会常委'}}, {'person_id': 410000012005, 'prov_leader': '徐光春', 'experience': {'begin_time': Timestamp('2000-07-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员（兼任）'}}, {'person_id': 622900011990, 'prov_leader': '石宗源', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央宣传思想工作领导小组成员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>330000012007</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>赵洪祝</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-09-01 00:00:00'), 'end_time': Timestamp('2007-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央纪律检查委员会常委'}</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[{'person_id': 620000001993, 'prov_leader': '阎海旺', 'experience': {'begin_time': Timestamp('1998-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央金融工作委员会副书记'}}, {'person_id': 230100001990, 'prov_leader': '张德邻', 'experience': {'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央直属机关工作委员会正部长级副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>330000012007</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>赵洪祝</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}, {'person_id': 450000012013, 'prov_leader': '彭清华', 'experience': {'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-12-02 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部部务委员'}}, {'person_id': 450000012013, 'prov_leader': '彭清华', 'experience': {'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-12-02 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部部务委员'}}, {'person_id': 520000011986, 'prov_leader': '胡锦涛', 'experience': {'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>630000012007</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>强卫</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 0, 'job_name': '北京市政法委员会书记'}</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>630000012007</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>强卫</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-03-01 00:00:00'), 'location': '北京市', 'type': '党委', 'rank': 8, 'job_name': '北京市党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>450000012013</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>彭清华</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 7, 'job_name': '中央组织部干部一局局长'}</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}, {'person_id': 330000012007, 'prov_leader': '赵洪祝', 'experience': {'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>450000012013</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>彭清华</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-12-02 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部部务委员'}</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000012007, 'prov_leader': '赵洪祝', 'experience': {'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}}, {'person_id': 230100001990, 'prov_leader': '张德邻', 'experience': {'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央直属机关工作委员会正部长级副书记'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}}, {'person_id': 330000012007, 'prov_leader': '赵洪祝', 'experience': {'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 8, 'job_name': '中央组织部副部长'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>350000012013</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>尤权</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央政府/国务院（综合）副秘书长'}</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[{'person_id': 140000001994, 'prov_leader': '孙文盛', 'experience': {'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国土资源部/厅/局副部长'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）机关党组书记'}}, {'person_id': 500000001997, 'prov_leader': '蒲海清', 'experience': {'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央三峡工程建设委员会办公厅/室正部长级副主任、党组副书记'}}, {'person_id': 510000001996, 'prov_leader': '宋宝瑞', 'experience': {'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央经济体制改革委员会副主任、党组副书记'}}, {'person_id': 610000002013, 'prov_leader': '娄勤俭', 'experience': {'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}}, {'person_id': 650000001980, 'prov_leader': '司马义·艾买提', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}}, {'person_id': 370000012017, 'prov_leader': '刘家义', 'experience': {'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局副审计长'}}, {'person_id': 410000012005, 'prov_leader': '徐光春', 'experience': {'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局局长'}}, {'person_id': 340700001988, 'prov_leader': '汪洋', 'experience': {'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央发展改革/计划委员会副主任'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>370000012017</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>刘家义</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局党组成员'}</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[{'person_id': 510000001996, 'prov_leader': '宋宝瑞', 'experience': {'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央经济体制改革委员会副主任、党组副书记'}}, {'person_id': 370000002013, 'prov_leader': '郭树清', 'experience': {'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央外汇管理分局局长、党组书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>370000012017</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>刘家义</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-09-01 00:00:00'), 'end_time': Timestamp('2007-07-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家审计署/地方审计厅/局副审计长'}</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[{'person_id': 622900011990, 'prov_leader': '石宗源', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央新闻出版署/版权局局长'}}, {'person_id': 220000002007, 'prov_leader': '韩长赋', 'experience': {'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央农业部/厅/局副部长'}}, {'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}}, {'person_id': 622900011990, 'prov_leader': '石宗源', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央新闻出版署/版权局局长'}}, {'person_id': 530000011998, 'prov_leader': '令狐安', 'experience': {'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2010-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家审计署/地方审计厅/局审计长（正部长级）、党组副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>370800001990</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>韩寓群</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 0, 'job_name': '山东省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>320000001989</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>陈焕友</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '江苏省', 'type': '人大', 'rank': 9, 'job_name': '江苏省人大常委会主任'}</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>140000002004</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>张宝顺</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 8, 'job_name': '山西省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>370000002013</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>郭树清</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央中国人民银行副行长'}</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[{'person_id': 350000012013, 'prov_leader': '尤权', 'experience': {'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央政府/国务院（综合）副秘书长'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）秘书长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>370000002013</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>郭树清</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央外汇管理分局局长、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>320000001995</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>郑斯林</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央企业工作委员会副书记'}</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央企业工作委员会书记'}}, {'person_id': 620000001980, 'prov_leader': '冯纪新', 'experience': {'begin_time': Timestamp('1984-02-01 00:00:00'), 'end_time': Timestamp('2005-07-21 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 0, 'job_name': '中央顾问委员会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>140000002013</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>李小鹏</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司总经理'}</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001992, 'prov_leader': '高严', 'experience': {'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 9, 'job_name': '中央国家电力公司副部长'}}, {'person_id': 350000002011, 'prov_leader': '苏树林', 'experience': {'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>140000002013</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>李小鹏</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司董事长'}</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[{'person_id': 350000002011, 'prov_leader': '苏树林', 'experience': {'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}}, {'person_id': 350000002011, 'prov_leader': '苏树林', 'experience': {'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司大庆石油管理局董事长、总经理'}}, {'person_id': 350000002011, 'prov_leader': '苏树林', 'experience': {'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司大庆石油管理局董事长、总经理'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>140100011990</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>孙英</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-08-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央党史研究室主任'}</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[{'person_id': 230100001990, 'prov_leader': '张德邻', 'experience': {'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央直属机关工作委员会正部长级副书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>500000001997</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>蒲海清</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央三峡工程建设委员会办公厅/室正部长级副主任、党组副书记'}</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>650000001980</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>司马义·艾买提</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）秘书长'}}, {'person_id': 310000001988, 'prov_leader': '朱镕基', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 11, 'job_name': '中央政府/国务院（综合）总理'}}, {'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>210000001982</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>全树仁</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}}, {'person_id': 140000001983, 'prov_leader': '王森浩', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}}, {'person_id': 430000001989, 'prov_leader': '陈邦柱', 'experience': {'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1991-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会党组副书记'}}, {'person_id': 530000001986, 'prov_leader': '和志强', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}}, {'person_id': 640000001987, 'prov_leader': '白立忱', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席、党组成员'}}, {'person_id': 210000011985, 'prov_leader': '李贵鲜', 'experience': {'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 430000011978, 'prov_leader': '毛致用', 'experience': {'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 510000011983, 'prov_leader': '杨汝岱', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 540000001981, 'prov_leader': '阿沛阿旺晋美', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}}, {'person_id': 340000001989, 'prov_leader': '傅锡寿', 'experience': {'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}}, {'person_id': 120000001980, 'prov_leader': '胡启立', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}}, {'person_id': 310000011985, 'prov_leader': '芮杏文', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协委员会常委'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>650000001986</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>铁木尔·达瓦买提</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长、党组成员'}</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[{'person_id': 360000011985, 'prov_leader': '万绍芬', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}}, {'person_id': 540000011985, 'prov_leader': '伍精华', 'experience': {'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>330000001988</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>沈祖伦</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[{'person_id': 120000001982, 'prov_leader': '李瑞环', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 11, 'job_name': '中央政协常委会主席'}}, {'person_id': 140000001983, 'prov_leader': '王森浩', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}}, {'person_id': 430000001989, 'prov_leader': '陈邦柱', 'experience': {'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1991-04-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 440000001986, 'prov_leader': '叶选平', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会党组副书记'}}, {'person_id': 530000001986, 'prov_leader': '和志强', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}}, {'person_id': 640000001987, 'prov_leader': '白立忱', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2013-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席、党组成员'}}, {'person_id': 210000011985, 'prov_leader': '李贵鲜', 'experience': {'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2008-06-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 430000011978, 'prov_leader': '毛致用', 'experience': {'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 510000011983, 'prov_leader': '杨汝岱', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}}, {'person_id': 540000001981, 'prov_leader': '阿沛阿旺晋美', 'experience': {'begin_time': Timestamp('1993-01-01 00:00:00'), 'end_time': Timestamp('2009-01-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}}, {'person_id': 340000001989, 'prov_leader': '傅锡寿', 'experience': {'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}}, {'person_id': 120000001980, 'prov_leader': '胡启立', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>330000001991</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>葛洪升</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央财政经济委员会副主任委员'}</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[{'person_id': 620000001983, 'prov_leader': '陈光毅', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央财政经济委员会主任委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>510000001988</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>张皓若</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001985, 'prov_leader': '高德占', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>630000001993</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>田成平</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2005-06-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 9, 'job_name': '山西省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人事部/厅/局副部长'}</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}}, {'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）机关党组书记'}}, {'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>330000001993</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>万学远</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-05-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央外国专家局局长'}</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001989, 'prov_leader': '王忠禹', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）秘书长'}}, {'person_id': 410000012005, 'prov_leader': '徐光春', 'experience': {'begin_time': Timestamp('2000-10-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央广播电影电视部/厅/局党组书记'}}, {'person_id': 360000011997, 'prov_leader': '舒惠国', 'experience': {'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人事部/厅/局副部长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>310000001995</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>徐匡迪</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2010-06-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中国工程院院长'}</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>650000001994</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>阿不来提·阿不都热西提</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '新疆维吾尔自治区政府/国务院（综合）主席'}</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>630000001997</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>白恩培</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2011-08-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 9, 'job_name': '云南省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>350000001994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>陈明义</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '福建省', 'type': '政协', 'rank': 9, 'job_name': '福建省政协常委会主席'}</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>510000001996</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>宋宝瑞</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央经济体制改革委员会副主任、党组副书记'}</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000011991, 'prov_leader': '吴邦国', 'experience': {'begin_time': Timestamp('1995-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>310000002002</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>陈良宇</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 9, 'job_name': '上海市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>310000002003</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>韩正</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市政府/国务院（综合）副市长'}</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[{'person_id': 350000002018, 'prov_leader': '唐登杰', 'experience': {'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 0, 'job_name': '上海市经济委员会主任'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>630000002004</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>杨传堂</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1994-11-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>630000002004</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>杨传堂</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2003-09-01 00:00:00'), 'location': '西藏自治区', 'type': '学校', 'rank': 8, 'job_name': '西藏自治区西藏自治区委党校校长'}</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[{'person_id': 511100011990, 'prov_leader': '郭金龙', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 9, 'job_name': '西藏自治区党委常委会/政治局书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>630000002005</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>宋秀岩</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-11-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>330000002003</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>吕祖善</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000002017, 'prov_leader': '应勇', 'experience': {'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省公安部/厅/局副厅长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>330000002003</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>吕祖善</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-12-02 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '浙江省', 'type': '学校', 'rank': 8, 'job_name': '浙江省浙江省委党校院长'}</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>510000001999</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>张中伟</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-05-01 00:00:00'), 'end_time': Timestamp('2007-01-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>430100011993</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>秦光荣</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 0, 'job_name': '云南省组织部部长'}</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>630000002010</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>骆惠宁</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 8, 'job_name': '安徽省宣传部部长'}</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>630000002010</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>骆惠宁</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 8, 'job_name': '北京市中国人民大学经济学院政治经济学专业博士生'}</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>350000002005</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>黄小晶</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '福建省', 'type': '政府/国务院', 'rank': 8, 'job_name': '福建省政府/国务院（综合）副省长、党组成员'}</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>330000002012</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>夏宝龙</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '天津市', 'type': '政府/国务院', 'rank': 8, 'job_name': '天津市政府/国务院（综合）副市长'}</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>610000002013</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>娄勤俭</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央工业和信息化（信息产业）部/厅/局副部长'}</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>610000002013</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>娄勤俭</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '湖北省武汉市', 'type': '学校', 'rank': 8, 'job_name': '湖北省武汉市华中科技大学（华中工学院）计算机专业博士生'}</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>310000002013</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>杨雄</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 7, 'job_name': '上海市政府/国务院（综合）副秘书长'}</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000002003, 'prov_leader': '韩正', 'experience': {'begin_time': Timestamp('1998-02-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 8, 'job_name': '上海市政府/国务院（综合）副市长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>630000002013</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>郝鹏</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '甘肃省兰州市', 'type': '政府/国务院', 'rank': 7, 'job_name': '甘肃省兰州市政府/国务院（综合）副市长'}</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>430100012000</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>张云川</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖南省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>430000002017</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>许达哲</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司党组成员'}</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220000001992, 'prov_leader': '高严', 'experience': {'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 9, 'job_name': '中央国家电力公司副部长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>430000002017</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>许达哲</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司副总经理'}</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[{'person_id': 130000002012, 'prov_leader': '张庆伟', 'experience': {'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国航天科技集团公司总经理'}}, {'person_id': 140000002013, 'prov_leader': '李小鹏', 'experience': {'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司董事长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>310000002017</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>应勇</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省公安部/厅/局副厅长'}</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>310000002017</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>应勇</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1995-05-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省禁毒办公室主任'}</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330000002003, 'prov_leader': '吕祖善', 'experience': {'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省政府/国务院（综合）副省长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>310000002017</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>应勇</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-04-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 7, 'job_name': '浙江省反恐办公室主任'}</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[{'person_id': 330200012004, 'prov_leader': '巴音朝鲁', 'experience': {'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 8, 'job_name': '浙江省政府/国务院（综合）副省长'}}, {'person_id': 330000002003, 'prov_leader': '吕祖善', 'experience': {'begin_time': Timestamp('1998-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省政府/国务院（综合）副省长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>610100012004</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>袁纯清</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 8, 'job_name': '陕西省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>630100011997</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>赵乐际</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-08-01 00:00:00'), 'end_time': Timestamp('2003-08-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 9, 'job_name': '青海省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>650000002015</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>雪克来提·扎克尔</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '新疆维吾尔自治区乌鲁木齐市', 'type': '政府/国务院', 'rank': 7, 'job_name': '新疆维吾尔自治区乌鲁木齐市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>330000002017</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>袁家军</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 6, 'job_name': '中央中国航天科技集团公司五院副院长'}</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[{'person_id': 130000002012, 'prov_leader': '张庆伟', 'experience': {'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国航天科技集团公司总经理'}}, {'person_id': 140000002013, 'prov_leader': '李小鹏', 'experience': {'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2008-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央华能集团公司总经理'}}, {'person_id': 430000002017, 'prov_leader': '许达哲', 'experience': {'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司党组成员'}}, {'person_id': 440300012015, 'prov_leader': '马兴瑞', 'experience': {'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2007-08-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 7, 'job_name': '中央中国航天科技集团公司副总经理、党组成员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>510000002016</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>尹力</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-12-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 6, 'job_name': '中央政策研究室社会发展司巡视员'}</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>410000002020</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>尹弘</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-07-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '上海市长宁区', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市长宁区政府/国务院（综合）副区长'}</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[{'person_id': 310000002002, 'prov_leader': '陈良宇', 'experience': {'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 9, 'job_name': '上海市政府/国务院（综合）市长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>410000002020</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>尹弘</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '上海市长宁区', 'type': '党委', 'rank': 6, 'job_name': '上海市长宁区党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>410000002020</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>尹弘</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '西藏自治区日喀则地区', 'type': '党委', 'rank': 6, 'job_name': '西藏自治区日喀则地区党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[{'person_id': 511100011990, 'prov_leader': '郭金龙', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 9, 'job_name': '西藏自治区党委常委会/政治局书记'}}, {'person_id': 540500001996, 'prov_leader': '胡春华', 'experience': {'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区直属机关工作委员会书记'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>410000002020</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>尹弘</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 6, 'job_name': '上海市第三批援藏干部联络组组长'}</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>370100012004</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>姜大明</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2007-06-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 0, 'job_name': '山东省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>220000001992</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>高严</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-02 00:00:00'), 'end_time': Timestamp('2014-04-02 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 9, 'job_name': '中央国家电力公司副部长'}</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>450100012012</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>陈武</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区政府/国务院（综合）副秘书长（正厅）、办公厅副主任'}</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[{'person_id': 450600011993, 'prov_leader': '李兆焯', 'experience': {'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}}, {'person_id': 450600011993, 'prov_leader': '李兆焯', 'experience': {'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>450100012012</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>陈武</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-04-02 00:00:00'), 'end_time': Timestamp('2003-04-02 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '广西壮族自治区发展研究中心主任、党组书记'}</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>330100012014</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>龚正</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '广东省深圳市', 'type': '政府/国务院', 'rank': 7, 'job_name': '广东省深圳市海关关长'}</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>330100012014</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>龚正</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 8, 'job_name': '中央厦门大学财政金融系财政学专业博士生'}</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>320500012014</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>石泰峰</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2010-09-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 8, 'job_name': '中央中央党校副校长'}</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[{'person_id': 620100011996, 'prov_leader': '陆浩', 'experience': {'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2003-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 9, 'job_name': '中央中央党校省部级在职研究生班政治学专业学员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>450000002003</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>陆兵</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-12-01 00:00:00'), 'end_time': Timestamp('2007-12-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 0, 'job_name': '广西壮族自治区党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>220000001999</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>洪虎</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 9, 'job_name': '吉林省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[{'person_id': 220500001993, 'prov_leader': '王儒林', 'experience': {'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 0, 'job_name': '吉林省政府/国务院（综合）副省长'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>360000011985</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>万绍芬</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[{'person_id': 150000001983, 'prov_leader': '布赫', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}}, {'person_id': 370000001987, 'prov_leader': '姜春云', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}}, {'person_id': 610000001988, 'prov_leader': '侯宗宾', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大内务司法委员会主任委员'}}, {'person_id': 650000001986, 'prov_leader': '铁木尔·达瓦买提', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长、党组成员'}}, {'person_id': 630000011986, 'prov_leader': '尹克升', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大民族委员会副主任委员'}}, {'person_id': 150000001983, 'prov_leader': '布赫', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}}, {'person_id': 370000001987, 'prov_leader': '姜春云', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}}, {'person_id': 610000001988, 'prov_leader': '侯宗宾', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大内务司法委员会主任委员'}}, {'person_id': 650000001986, 'prov_leader': '铁木尔·达瓦买提', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长、党组成员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>360000011985</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>万绍芬</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央内务司法委员会副主任'}</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>220000002007</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>韩长赋</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央农业部/厅/局副部长'}</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>220000001985</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>高德占</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央农业与农村委员会主任委员'}</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>220000001985</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>高德占</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[{'person_id': 150000001983, 'prov_leader': '布赫', 'experience': {'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}}, {'person_id': 370000001987, 'prov_leader': '姜春云', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}}, {'person_id': 540000001990, 'prov_leader': '江村罗布', 'experience': {'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大民族委员会副主任委员'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>540000011985</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>伍精华</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-04-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 0, 'job_name': '中央人大常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>120000001980</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>胡启立</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会副主席'}</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>120000001980</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>胡启立</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '中央宋庆龄基金会主席'}</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>310000011985</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>芮杏文</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协委员会常委'}</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>220100011993</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>王云坤</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 9, 'job_name': '吉林省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>133023011990</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>郭庚茂</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2006-10-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 8, 'job_name': '河北省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>220000001989</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>王忠禹</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 10, 'job_name': '中央国家行政学院院长'}</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>220000001989</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>王忠禹</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）机关党组书记'}</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>220000001989</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>王忠禹</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）秘书长'}</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>220000001989</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>王忠禹</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>220000001989</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>王忠禹</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央国家机关工作委员会书记'}</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>530000001986</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>和志强</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>230100001990</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>张德邻</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-06-01 00:00:00'), 'end_time': Timestamp('2004-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央直属机关工作委员会正部长级副书记'}</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>540500001993</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>向巴平措</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区拉萨市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>220500001993</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>王儒林</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 0, 'job_name': '吉林省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>540500001996</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>胡春华</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区直属机关工作委员会书记'}</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>540500001996</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>胡春华</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-07-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区党委常委会/政治局秘书长'}</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>650100001998</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>努尔·白克力</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 0, 'job_name': '新疆维吾尔自治区政法委员会副书记'}</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>540500002000</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>白玛赤林</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区山南地区', 'type': '政府/国务院', 'rank': 7, 'job_name': '西藏自治区山南地区政府/国务院（综合）行署专员'}</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>210100002001</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>陈政高</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '辽宁省', 'type': '政府/国务院', 'rank': 8, 'job_name': '辽宁省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>210100002001</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>陈政高</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-12-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '政府/国务院', 'rank': 8, 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>530100002005</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>王文涛</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2004-03-01 00:00:00'), 'location': '上海市松江区', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市松江区政府/国务院（综合）副区长'}</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>530100002005</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>王文涛</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2004-03-01 00:00:00'), 'location': '上海市松江区', 'type': '政府/国务院', 'rank': 6, 'job_name': '上海市松江区发展改革/计划委员会主任'}</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>331000011991</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>黄兴国</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-11-01 00:00:00'), 'end_time': Timestamp('2003-11-01 00:00:00'), 'location': '浙江省宁波市', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>331000011991</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>黄兴国</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2004-08-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 8, 'job_name': '上海市同济大学经济与管理学院管理科学与工程专业博士生'}</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>131000011998</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>王学军</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 8, 'job_name': '河北省党委常委会/政治局秘书长'}</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>210200012001</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>孙春兰</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-11-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 8, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>210200012001</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>孙春兰</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2005-11-01 00:00:00'), 'location': '辽宁省大连市', 'type': '党委', 'rank': 8, 'job_name': '辽宁省大连市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>330200012004</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>巴音朝鲁</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 8, 'job_name': '浙江省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>350000002011</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>苏树林</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-08-01 00:00:00'), 'end_time': Timestamp('2006-09-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司副总经理、党组成员'}</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>350000002011</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>苏树林</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2003-12-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 8, 'job_name': '中央中国石油天然气总公司大庆石油管理局董事长、总经理'}</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>420600012008</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>唐良智</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '湖北省武汉市硚口区', 'type': '政府/国务院', 'rank': 7, 'job_name': '湖北省武汉市硚口区政府/国务院（综合）区长'}</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>530000002001</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>徐荣凯</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '云南省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>350000002018</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>唐登杰</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 0, 'job_name': '上海市工业工作党委nan'}</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>350000002018</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>唐登杰</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 0, 'job_name': '上海市经济委员会主任'}</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>530000002015</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>陈豪</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-06-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 7, 'job_name': '上海市党委常委会/政治局副秘书长'}</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>530000002015</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>陈豪</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 7, 'job_name': '上海市中欧国际工商学院工商管理专业硕士生'}</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>530000002015</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>陈豪</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-11-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 7, 'job_name': '上海市办公厅/室主任'}</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>430224001991</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>陈润儿</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '湖南省湘潭市', 'type': '政府/国务院', 'rank': 7, 'job_name': '湖南省湘潭市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>440106011990</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>于幼军</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-04-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '广东省深圳市', 'type': '政府/国务院', 'rank': 0, 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>370282011990</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>赵克志</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-02-01 00:00:00'), 'end_time': Timestamp('2006-01-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 8, 'job_name': '山东省政府/国务院（综合）副省长、党组成员'}</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>430000001989</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>陈邦柱</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会常委'}</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>430000001995</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>杨正午</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-09-01 00:00:00'), 'end_time': Timestamp('2005-12-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>130000001993</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>叶连松</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2008-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>610000001988</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>侯宗宾</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大内务司法委员会主任委员'}</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>441400001990</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>黄华华</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 8, 'job_name': '广东省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>430200001991</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>周伯华</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1995-10-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 8, 'job_name': '湖南省政府/国务院（综合）副省长'}</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>430200001991</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>周伯华</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-11-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 8, 'job_name': '湖南省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>210200001993</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>薄熙来</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-01-01 00:00:00'), 'end_time': Timestamp('2004-02-01 00:00:00'), 'location': '辽宁省', 'type': '政府/国务院', 'rank': 9, 'job_name': '辽宁省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>520600002003</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>谌贻琴</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '贵州省黔南布依族苗族自治州', 'type': '党委', 'rank': 7, 'job_name': '贵州省黔南布依族苗族自治州党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>430000002007</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>周强</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '中央', 'type': '共青团', 'rank': 9, 'job_name': '中央共青团委书记'}</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>430300011990</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>曹伯纯</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1997-07-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 9, 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>511100011990</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>郭金龙</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-09-01 00:00:00'), 'end_time': Timestamp('2004-12-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 9, 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>232700011991</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>张毅</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2006-11-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 8, 'job_name': '河北省纪律检查委员会书记'}</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>232700011991</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>张毅</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-10-01 00:00:00'), 'end_time': Timestamp('2007-09-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 8, 'job_name': '河北省党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>150000001983</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>布赫</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>150300011994</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>巴特尔</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2008-04-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 8, 'job_name': '内蒙古自治区党委常委会/政治局副书记'}</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>320700012001</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>王国生</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-12-01 00:00:00'), 'end_time': Timestamp('2004-06-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 0, 'job_name': '江苏省宣传部部长'}</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>620700012003</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>李希</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-08-01 00:00:00'), 'end_time': Timestamp('2004-06-01 00:00:00'), 'location': '甘肃省张掖市', 'type': '党委', 'rank': 7, 'job_name': '甘肃省张掖市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>430000002013</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>杜家毫</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-10-01 00:00:00'), 'end_time': Timestamp('2003-02-01 00:00:00'), 'location': '上海市杨浦区', 'type': '党委', 'rank': 7, 'job_name': '上海市杨浦区党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>520000011986</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>胡锦涛</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1992-10-01 00:00:00'), 'end_time': Timestamp('2012-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>150000002001</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>乌云其木格</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '内蒙古自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>520000011993</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>刘方仁</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1993-06-01 00:00:00'), 'end_time': Timestamp('2003-05-01 00:00:00'), 'location': '贵州省', 'type': '军队', 'rank': 9, 'job_name': '贵州省贵州省军区书记'}</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>610100011990</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>安启元</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-01-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '陕西省', 'type': '政协', 'rank': 9, 'job_name': '陕西省政协常委会主席'}</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>510000001985</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>蒋民宽</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央教科文卫体委员会副主任'}</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>150100011998</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>杨晶</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-06-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '内蒙古自治区呼和浩特市', 'type': '党委', 'rank': 0, 'job_name': '内蒙古自治区呼和浩特市党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>340700001988</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>汪洋</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央发展改革/计划委员会副主任'}</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>440604001990</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>卢瑞华</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1996-02-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 9, 'job_name': '广东省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>320700001993</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>徐守盛</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-09-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 0, 'job_name': '甘肃省组织部部长'}</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>340000011983</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>黄璜</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央民族和宗教委员会副主任委员'}</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>210400011990</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>刘振华</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-07-01 00:00:00'), 'end_time': Timestamp('2004-01-01 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '山西省政府/国务院（综合）省长'}</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>460000011993</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>阮崇武</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>360000011997</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>舒惠国</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2003-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央人事部/厅/局副部长'}</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>620000011991</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>顾金池</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>620000011991</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>顾金池</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1998-03-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央内务司法委员会副主任'}</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>360000012001</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>孟建柱</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-04-01 00:00:00'), 'end_time': Timestamp('2007-11-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 9, 'job_name': '江西省党委常委会/政治局书记'}</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>460000011998</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>杜青林</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-06-01 00:00:00'), 'end_time': Timestamp('2006-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央农业部/厅/局部长'}</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>230400012005</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>刘国中</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-06-01 00:00:00'), 'end_time': Timestamp('2003-06-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 6, 'job_name': '黑龙江省政策研究室副主任、党组成员'}</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>540000012017</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>吴英杰</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-05-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 7, 'job_name': '西藏自治区教育部/厅/局厅长、党组副书记'}</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>540000012017</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>吴英杰</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2000-03-01 00:00:00'), 'end_time': Timestamp('2003-01-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 7, 'job_name': '中央中央党校研究生院在职研究生班中共党史专业学员'}</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230000001989</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>邵奇惠</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('1999-09-01 00:00:00'), 'end_time': Timestamp('2003-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央政协常委会委员'}</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>533401011994</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>齐扎拉</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2007-05-01 00:00:00'), 'location': '云南省迪庆藏族自治州', 'type': '政府/国务院', 'rank': 7, 'job_name': '云南省迪庆藏族自治州政府/国务院（综合）州长'}</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
